--- a/Test_Suite/temp/wifi_modify_settings.xlsx
+++ b/Test_Suite/temp/wifi_modify_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A3E6A9-04D0-471F-B6C1-2DDE24AF9FE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD6584A-FA2E-4878-A5FD-7FE5370B1FD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>'WPA2P5G'，launchBy='settings'</t>
+      <t>'WPA2P5G',launchBy='settings'</t>
     </r>
     <r>
       <rPr>
